--- a/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xgang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28088EEE-2079-429C-B88A-0BDA19D874C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9884C8-D2C5-450B-8ADF-BF822040798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7608" yWindow="564" windowWidth="14304" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
   <si>
     <t>stage</t>
   </si>
@@ -39,26 +39,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>road01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>road03</t>
-  </si>
-  <si>
-    <t>road04</t>
-  </si>
-  <si>
-    <t>road05</t>
-  </si>
-  <si>
-    <t>road00</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>road02</t>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -126,15 +106,497 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>빈공간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>금코인</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>은코인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road00e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road01e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road02e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road03e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road04e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road05e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road00n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road01n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road02n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road03n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road04n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road05n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemBool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road00h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road01h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road02h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road03h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road04h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>road05h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11m</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>16m</t>
+  </si>
+  <si>
+    <t>17m</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>21m</t>
+  </si>
+  <si>
+    <t>22m</t>
+  </si>
+  <si>
+    <t>23m</t>
+  </si>
+  <si>
+    <t>24m</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>28m</t>
+  </si>
+  <si>
+    <t>29m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>31m</t>
+  </si>
+  <si>
+    <t>32m</t>
+  </si>
+  <si>
+    <t>33m</t>
+  </si>
+  <si>
+    <t>34m</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>36m</t>
+  </si>
+  <si>
+    <t>37m</t>
+  </si>
+  <si>
+    <t>38m</t>
+  </si>
+  <si>
+    <t>39m</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>41m</t>
+  </si>
+  <si>
+    <t>42m</t>
+  </si>
+  <si>
+    <t>43m</t>
+  </si>
+  <si>
+    <t>44m</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>46m</t>
+  </si>
+  <si>
+    <t>47m</t>
+  </si>
+  <si>
+    <t>48m</t>
+  </si>
+  <si>
+    <t>49m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>51m</t>
+  </si>
+  <si>
+    <t>52m</t>
+  </si>
+  <si>
+    <t>53m</t>
+  </si>
+  <si>
+    <t>54m</t>
+  </si>
+  <si>
+    <t>55m</t>
+  </si>
+  <si>
+    <t>56m</t>
+  </si>
+  <si>
+    <t>57m</t>
+  </si>
+  <si>
+    <t>58m</t>
+  </si>
+  <si>
+    <t>59m</t>
+  </si>
+  <si>
+    <t>60m</t>
+  </si>
+  <si>
+    <t>61m</t>
+  </si>
+  <si>
+    <t>62m</t>
+  </si>
+  <si>
+    <t>63m</t>
+  </si>
+  <si>
+    <t>64m</t>
+  </si>
+  <si>
+    <t>65m</t>
+  </si>
+  <si>
+    <t>66m</t>
+  </si>
+  <si>
+    <t>67m</t>
+  </si>
+  <si>
+    <t>68m</t>
+  </si>
+  <si>
+    <t>69m</t>
+  </si>
+  <si>
+    <t>70m</t>
+  </si>
+  <si>
+    <t>71m</t>
+  </si>
+  <si>
+    <t>72m</t>
+  </si>
+  <si>
+    <t>73m</t>
+  </si>
+  <si>
+    <t>74m</t>
+  </si>
+  <si>
+    <t>75m</t>
+  </si>
+  <si>
+    <t>76m</t>
+  </si>
+  <si>
+    <t>77m</t>
+  </si>
+  <si>
+    <t>78m</t>
+  </si>
+  <si>
+    <t>79m</t>
+  </si>
+  <si>
+    <t>80m</t>
+  </si>
+  <si>
+    <t>81m</t>
+  </si>
+  <si>
+    <t>82m</t>
+  </si>
+  <si>
+    <t>83m</t>
+  </si>
+  <si>
+    <t>84m</t>
+  </si>
+  <si>
+    <t>85m</t>
+  </si>
+  <si>
+    <t>86m</t>
+  </si>
+  <si>
+    <t>87m</t>
+  </si>
+  <si>
+    <t>88m</t>
+  </si>
+  <si>
+    <t>89m</t>
+  </si>
+  <si>
+    <t>90m</t>
+  </si>
+  <si>
+    <t>91m</t>
+  </si>
+  <si>
+    <t>92m</t>
+  </si>
+  <si>
+    <t>93m</t>
+  </si>
+  <si>
+    <t>94m</t>
+  </si>
+  <si>
+    <t>95m</t>
+  </si>
+  <si>
+    <t>96m</t>
+  </si>
+  <si>
+    <t>97m</t>
+  </si>
+  <si>
+    <t>98m</t>
+  </si>
+  <si>
+    <t>99m</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>101m</t>
+  </si>
+  <si>
+    <t>102m</t>
+  </si>
+  <si>
+    <t>103m</t>
+  </si>
+  <si>
+    <t>104m</t>
+  </si>
+  <si>
+    <t>105m</t>
+  </si>
+  <si>
+    <t>106m</t>
+  </si>
+  <si>
+    <t>107m</t>
+  </si>
+  <si>
+    <t>108m</t>
+  </si>
+  <si>
+    <t>109m</t>
+  </si>
+  <si>
+    <t>110m</t>
+  </si>
+  <si>
+    <t>111m</t>
+  </si>
+  <si>
+    <t>112m</t>
+  </si>
+  <si>
+    <t>113m</t>
+  </si>
+  <si>
+    <t>114m</t>
+  </si>
+  <si>
+    <t>115m</t>
+  </si>
+  <si>
+    <t>116m</t>
+  </si>
+  <si>
+    <t>117m</t>
+  </si>
+  <si>
+    <t>118m</t>
+  </si>
+  <si>
+    <t>119m</t>
+  </si>
+  <si>
+    <t>120m</t>
+  </si>
+  <si>
+    <t>121m</t>
+  </si>
+  <si>
+    <t>122m</t>
+  </si>
+  <si>
+    <t>123m</t>
+  </si>
+  <si>
+    <t>124m</t>
+  </si>
+  <si>
+    <t>125m</t>
+  </si>
+  <si>
+    <t>126m</t>
+  </si>
+  <si>
+    <t>127m</t>
+  </si>
+  <si>
+    <t>128m</t>
+  </si>
+  <si>
+    <t>129m</t>
+  </si>
+  <si>
+    <t>130m</t>
+  </si>
+  <si>
+    <t>131m</t>
+  </si>
+  <si>
+    <t>132m</t>
+  </si>
+  <si>
+    <t>133m</t>
+  </si>
+  <si>
+    <t>134m</t>
+  </si>
+  <si>
+    <t>135m</t>
+  </si>
+  <si>
+    <t>136m</t>
+  </si>
+  <si>
+    <t>137m</t>
+  </si>
+  <si>
+    <t>138m</t>
+  </si>
+  <si>
+    <t>139m</t>
+  </si>
+  <si>
+    <t>140m</t>
+  </si>
+  <si>
+    <t>141m</t>
+  </si>
+  <si>
+    <t>142m</t>
+  </si>
+  <si>
+    <t>143m</t>
+  </si>
+  <si>
+    <t>144m</t>
+  </si>
+  <si>
+    <t>자동차</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈공간</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1125,32 +1587,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1280,20 +1742,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77577FBF-AC70-439D-AB00-77766A3B82B8}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:EP40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="EF3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="EN14" sqref="EN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="6.69921875" style="1"/>
+    <col min="1" max="1" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="6.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1319,450 +1785,2252 @@
       <c r="I1" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:146" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CU7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CZ7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DB7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DF7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DI7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DZ7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="EF7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="EH7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="EJ7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EK7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EL7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EM7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EN7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="EO7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="EP7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="EO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1">
+        <v>8</v>
+      </c>
+      <c r="V9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX9" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN9" s="1">
+        <v>8</v>
+      </c>
+      <c r="DP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DT9" s="1">
+        <v>8</v>
+      </c>
+      <c r="DV9" s="1">
+        <v>8</v>
+      </c>
+      <c r="DX9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DZ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EB9" s="1">
+        <v>7</v>
+      </c>
+      <c r="ED9" s="1">
+        <v>1</v>
+      </c>
+      <c r="EF9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="EJ9" s="1">
+        <v>7</v>
+      </c>
+      <c r="EL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="EN9" s="1">
+        <v>2</v>
+      </c>
+      <c r="EP9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>8</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>8</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CX10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL10" s="1">
+        <v>8</v>
+      </c>
+      <c r="DN10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="1">
+        <v>8</v>
+      </c>
+      <c r="DT10" s="1">
+        <v>7</v>
+      </c>
+      <c r="DV10" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX10" s="1">
+        <v>8</v>
+      </c>
+      <c r="DZ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB10" s="1">
+        <v>7</v>
+      </c>
+      <c r="ED10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="EH10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EJ10" s="1">
+        <v>7</v>
+      </c>
+      <c r="EL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="EN10" s="1">
+        <v>2</v>
+      </c>
+      <c r="EP10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7</v>
+      </c>
+      <c r="V11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CZ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DV11" s="1">
+        <v>8</v>
+      </c>
+      <c r="DX11" s="1">
+        <v>7</v>
+      </c>
+      <c r="DZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="ED11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EF11" s="1">
+        <v>7</v>
+      </c>
+      <c r="EH11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EN11" s="1">
+        <v>7</v>
+      </c>
+      <c r="EP11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8</v>
+      </c>
+      <c r="V12" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="DB12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>8</v>
+      </c>
+      <c r="DT12" s="1">
+        <v>8</v>
+      </c>
+      <c r="DV12" s="1">
+        <v>8</v>
+      </c>
+      <c r="DX12" s="1">
+        <v>7</v>
+      </c>
+      <c r="DZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB12" s="1">
+        <v>7</v>
+      </c>
+      <c r="ED12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EF12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="EJ12" s="1">
+        <v>7</v>
+      </c>
+      <c r="EL12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EN12" s="1">
+        <v>7</v>
+      </c>
+      <c r="EP12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8</v>
+      </c>
+      <c r="N13" s="1">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX13" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB13" s="1">
+        <v>8</v>
+      </c>
+      <c r="DD13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR13" s="1">
+        <v>8</v>
+      </c>
+      <c r="DT13" s="1">
+        <v>7</v>
+      </c>
+      <c r="DV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX13" s="1">
+        <v>8</v>
+      </c>
+      <c r="DZ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EB13" s="1">
+        <v>7</v>
+      </c>
+      <c r="ED13" s="1">
+        <v>1</v>
+      </c>
+      <c r="EF13" s="1">
+        <v>7</v>
+      </c>
+      <c r="EH13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EJ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="EN13" s="1">
+        <v>7</v>
+      </c>
+      <c r="EP13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>7</v>
+      </c>
+      <c r="V14" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX14" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD14" s="1">
+        <v>8</v>
+      </c>
+      <c r="DF14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DT14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DV14" s="1">
+        <v>8</v>
+      </c>
+      <c r="DX14" s="1">
+        <v>7</v>
+      </c>
+      <c r="DZ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EB14" s="1">
+        <v>7</v>
+      </c>
+      <c r="ED14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EF14" s="1">
+        <v>7</v>
+      </c>
+      <c r="EH14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="EL14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EN14" s="1">
+        <v>2</v>
+      </c>
+      <c r="EP14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:146" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
+      <c r="A22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
+      <c r="A23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>11</v>
+      <c r="A32" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xgang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RhythmiCar\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9884C8-D2C5-450B-8ADF-BF822040798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85CCA1-BE8F-4B80-AACF-8C503B14B3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="205">
   <si>
     <t>stage</t>
   </si>
@@ -598,6 +598,78 @@
   <si>
     <t>빈공간</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>145m</t>
+  </si>
+  <si>
+    <t>146m</t>
+  </si>
+  <si>
+    <t>147m</t>
+  </si>
+  <si>
+    <t>148m</t>
+  </si>
+  <si>
+    <t>149m</t>
+  </si>
+  <si>
+    <t>150m</t>
+  </si>
+  <si>
+    <t>151m</t>
+  </si>
+  <si>
+    <t>152m</t>
+  </si>
+  <si>
+    <t>153m</t>
+  </si>
+  <si>
+    <t>154m</t>
+  </si>
+  <si>
+    <t>155m</t>
+  </si>
+  <si>
+    <t>156m</t>
+  </si>
+  <si>
+    <t>157m</t>
+  </si>
+  <si>
+    <t>158m</t>
+  </si>
+  <si>
+    <t>159m</t>
+  </si>
+  <si>
+    <t>160m</t>
+  </si>
+  <si>
+    <t>161m</t>
+  </si>
+  <si>
+    <t>162m</t>
+  </si>
+  <si>
+    <t>163m</t>
+  </si>
+  <si>
+    <t>164m</t>
+  </si>
+  <si>
+    <t>165m</t>
+  </si>
+  <si>
+    <t>166m</t>
+  </si>
+  <si>
+    <t>167m</t>
+  </si>
+  <si>
+    <t>168m</t>
   </si>
 </sst>
 </file>
@@ -1742,13 +1814,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77577FBF-AC70-439D-AB00-77766A3B82B8}">
-  <dimension ref="A1:EP40"/>
+  <dimension ref="A1:FN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="EF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EN14" sqref="EN14"/>
+      <selection pane="bottomRight" activeCell="FE18" sqref="FE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1757,7 +1829,7 @@
     <col min="2" max="16384" width="6.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1821,27 +1893,27 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2280,1635 +2352,3669 @@
       <c r="EP7" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="EQ7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="ER7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="ES7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="ET7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EU7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EV7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EW7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EX7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EY7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EZ7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FA7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FB7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FC7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FD7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="FE7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="FF7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="FG7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FH7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FI7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="FJ7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="FK7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="FL7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="FM7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="FN7" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP8" s="1">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>1</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>1</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>1</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>1</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>1</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>1</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>1</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>1</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>1</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>1</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>1</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>1</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>1</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>1</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>1</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>1</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>1</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>1</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>1</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>1</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>1</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>1</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>1</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>1</v>
+      </c>
+      <c r="EQ8">
+        <v>0</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <v>0</v>
+      </c>
+      <c r="EY8">
+        <v>0</v>
+      </c>
+      <c r="EZ8">
+        <v>0</v>
+      </c>
+      <c r="FA8">
+        <v>0</v>
+      </c>
+      <c r="FB8">
+        <v>0</v>
+      </c>
+      <c r="FC8">
+        <v>0</v>
+      </c>
+      <c r="FD8">
+        <v>0</v>
+      </c>
+      <c r="FE8">
+        <v>0</v>
+      </c>
+      <c r="FF8">
+        <v>0</v>
+      </c>
+      <c r="FG8">
+        <v>0</v>
+      </c>
+      <c r="FH8">
+        <v>0</v>
+      </c>
+      <c r="FI8">
+        <v>0</v>
+      </c>
+      <c r="FJ8">
+        <v>0</v>
+      </c>
+      <c r="FK8">
+        <v>0</v>
+      </c>
+      <c r="FL8">
+        <v>0</v>
+      </c>
+      <c r="FM8">
+        <v>0</v>
+      </c>
+      <c r="FN8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
       <c r="J9" s="1">
         <v>7</v>
       </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
       <c r="N9" s="1">
         <v>7</v>
       </c>
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>8</v>
+      </c>
       <c r="R9" s="1">
         <v>8</v>
       </c>
+      <c r="S9" s="1">
+        <v>8</v>
+      </c>
+      <c r="T9" s="1">
+        <v>8</v>
+      </c>
+      <c r="U9" s="1">
+        <v>8</v>
+      </c>
       <c r="V9" s="1">
         <v>7</v>
       </c>
+      <c r="W9" s="1">
+        <v>8</v>
+      </c>
+      <c r="X9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>8</v>
+      </c>
       <c r="Z9" s="1">
         <v>8</v>
       </c>
+      <c r="AA9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>8</v>
+      </c>
       <c r="AD9" s="1">
         <v>7</v>
       </c>
+      <c r="AE9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>8</v>
+      </c>
       <c r="AH9" s="1">
         <v>8</v>
       </c>
+      <c r="AI9" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ9" s="1">
         <v>8</v>
       </c>
+      <c r="AK9" s="1">
+        <v>8</v>
+      </c>
       <c r="AL9" s="1">
         <v>7</v>
       </c>
+      <c r="AM9" s="1">
+        <v>8</v>
+      </c>
       <c r="AN9" s="1">
         <v>7</v>
       </c>
+      <c r="AO9" s="1">
+        <v>8</v>
+      </c>
       <c r="AP9" s="1">
         <v>8</v>
       </c>
+      <c r="AQ9" s="1">
+        <v>8</v>
+      </c>
       <c r="AR9" s="1">
         <v>7</v>
       </c>
+      <c r="AS9" s="1">
+        <v>8</v>
+      </c>
       <c r="AT9" s="1">
         <v>7</v>
       </c>
+      <c r="AU9" s="1">
+        <v>8</v>
+      </c>
       <c r="AV9" s="1">
         <v>7</v>
       </c>
+      <c r="AW9" s="1">
+        <v>8</v>
+      </c>
       <c r="AX9" s="1">
         <v>7</v>
       </c>
+      <c r="AY9" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ9" s="1">
         <v>7</v>
       </c>
+      <c r="BA9" s="1">
+        <v>8</v>
+      </c>
       <c r="BB9" s="1">
         <v>7</v>
       </c>
+      <c r="BC9" s="1">
+        <v>8</v>
+      </c>
       <c r="BD9" s="1">
         <v>7</v>
       </c>
+      <c r="BE9" s="1">
+        <v>8</v>
+      </c>
       <c r="BF9" s="1">
         <v>7</v>
       </c>
+      <c r="BG9" s="1">
+        <v>8</v>
+      </c>
       <c r="BH9" s="1">
         <v>7</v>
       </c>
+      <c r="BI9" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ9" s="1">
         <v>8</v>
       </c>
+      <c r="BK9" s="1">
+        <v>8</v>
+      </c>
       <c r="BL9" s="1">
         <v>0</v>
       </c>
+      <c r="BM9" s="1">
+        <v>8</v>
+      </c>
       <c r="BN9" s="1">
         <v>7</v>
       </c>
+      <c r="BO9" s="1">
+        <v>8</v>
+      </c>
       <c r="BP9" s="1">
         <v>8</v>
       </c>
+      <c r="BQ9" s="1">
+        <v>8</v>
+      </c>
       <c r="BR9" s="1">
         <v>8</v>
       </c>
+      <c r="BS9" s="1">
+        <v>8</v>
+      </c>
       <c r="BT9" s="1">
         <v>7</v>
       </c>
+      <c r="BU9" s="1">
+        <v>8</v>
+      </c>
       <c r="BV9" s="1">
         <v>8</v>
       </c>
+      <c r="BW9" s="1">
+        <v>8</v>
+      </c>
       <c r="BX9" s="1">
         <v>7</v>
       </c>
+      <c r="BY9" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ9" s="1">
         <v>8</v>
       </c>
+      <c r="CA9" s="1">
+        <v>8</v>
+      </c>
       <c r="CB9" s="1">
         <v>8</v>
       </c>
+      <c r="CC9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>8</v>
+      </c>
       <c r="CF9" s="1">
         <v>7</v>
       </c>
+      <c r="CG9" s="1">
+        <v>8</v>
+      </c>
       <c r="CH9" s="1">
         <v>1</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>8</v>
       </c>
       <c r="CJ9" s="1">
         <v>2</v>
       </c>
+      <c r="CK9" s="1">
+        <v>8</v>
+      </c>
       <c r="CL9" s="1">
         <v>8</v>
       </c>
+      <c r="CM9" s="1">
+        <v>8</v>
+      </c>
       <c r="CN9" s="1">
         <v>7</v>
       </c>
+      <c r="CO9" s="1">
+        <v>8</v>
+      </c>
       <c r="CP9" s="1">
         <v>7</v>
       </c>
+      <c r="CQ9" s="1">
+        <v>8</v>
+      </c>
       <c r="CR9" s="1">
         <v>7</v>
       </c>
+      <c r="CS9" s="1">
+        <v>8</v>
+      </c>
       <c r="CT9" s="1">
         <v>8</v>
       </c>
+      <c r="CU9" s="1">
+        <v>8</v>
+      </c>
       <c r="CV9" s="1">
         <v>7</v>
       </c>
+      <c r="CW9" s="1">
+        <v>8</v>
+      </c>
       <c r="CX9" s="1">
         <v>7</v>
       </c>
+      <c r="CY9" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ9" s="1">
         <v>7</v>
       </c>
+      <c r="DA9" s="1">
+        <v>8</v>
+      </c>
       <c r="DB9" s="1">
         <v>7</v>
       </c>
+      <c r="DC9" s="1">
+        <v>8</v>
+      </c>
       <c r="DD9" s="1">
         <v>7</v>
       </c>
+      <c r="DE9" s="1">
+        <v>8</v>
+      </c>
       <c r="DF9" s="1">
         <v>7</v>
       </c>
+      <c r="DG9" s="1">
+        <v>8</v>
+      </c>
       <c r="DH9" s="1">
         <v>7</v>
       </c>
+      <c r="DI9" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ9" s="1">
         <v>7</v>
       </c>
+      <c r="DK9" s="1">
+        <v>8</v>
+      </c>
       <c r="DL9" s="1">
         <v>7</v>
       </c>
+      <c r="DM9" s="1">
+        <v>8</v>
+      </c>
       <c r="DN9" s="1">
         <v>8</v>
       </c>
+      <c r="DO9" s="1">
+        <v>8</v>
+      </c>
       <c r="DP9" s="1">
         <v>0</v>
       </c>
+      <c r="DQ9" s="1">
+        <v>8</v>
+      </c>
       <c r="DR9" s="1">
         <v>7</v>
       </c>
+      <c r="DS9" s="1">
+        <v>8</v>
+      </c>
       <c r="DT9" s="1">
         <v>8</v>
       </c>
+      <c r="DU9" s="1">
+        <v>8</v>
+      </c>
       <c r="DV9" s="1">
         <v>8</v>
       </c>
+      <c r="DW9" s="1">
+        <v>8</v>
+      </c>
       <c r="DX9" s="1">
         <v>7</v>
       </c>
+      <c r="DY9" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ9" s="1">
         <v>8</v>
       </c>
+      <c r="EA9" s="1">
+        <v>8</v>
+      </c>
       <c r="EB9" s="1">
         <v>7</v>
       </c>
+      <c r="EC9" s="1">
+        <v>8</v>
+      </c>
       <c r="ED9" s="1">
         <v>1</v>
       </c>
+      <c r="EE9" s="1">
+        <v>8</v>
+      </c>
       <c r="EF9" s="1">
         <v>8</v>
       </c>
+      <c r="EG9" s="1">
+        <v>8</v>
+      </c>
       <c r="EH9" s="1">
         <v>1</v>
       </c>
+      <c r="EI9" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ9" s="1">
         <v>7</v>
       </c>
+      <c r="EK9" s="1">
+        <v>8</v>
+      </c>
       <c r="EL9" s="1">
         <v>1</v>
+      </c>
+      <c r="EM9" s="1">
+        <v>8</v>
       </c>
       <c r="EN9" s="1">
         <v>2</v>
       </c>
+      <c r="EO9" s="1">
+        <v>8</v>
+      </c>
       <c r="EP9" s="1">
         <v>4</v>
       </c>
+      <c r="EQ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER9" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES9" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY9" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM9" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN9" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
       <c r="F10" s="1">
         <v>7</v>
       </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
       <c r="N10" s="1">
         <v>7</v>
       </c>
+      <c r="O10" s="1">
+        <v>8</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
       <c r="R10" s="1">
         <v>7</v>
       </c>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>8</v>
+      </c>
+      <c r="U10" s="1">
+        <v>8</v>
+      </c>
       <c r="V10" s="1">
         <v>7</v>
       </c>
+      <c r="W10" s="1">
+        <v>8</v>
+      </c>
+      <c r="X10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
       <c r="Z10" s="1">
         <v>8</v>
       </c>
+      <c r="AA10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>8</v>
+      </c>
       <c r="AD10" s="1">
         <v>7</v>
       </c>
+      <c r="AE10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>8</v>
+      </c>
       <c r="AH10" s="1">
         <v>7</v>
       </c>
+      <c r="AI10" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ10" s="1">
         <v>7</v>
       </c>
+      <c r="AK10" s="1">
+        <v>8</v>
+      </c>
       <c r="AL10" s="1">
         <v>7</v>
       </c>
+      <c r="AM10" s="1">
+        <v>8</v>
+      </c>
       <c r="AN10" s="1">
         <v>8</v>
       </c>
+      <c r="AO10" s="1">
+        <v>8</v>
+      </c>
       <c r="AP10" s="1">
         <v>7</v>
       </c>
+      <c r="AQ10" s="1">
+        <v>8</v>
+      </c>
       <c r="AR10" s="1">
         <v>8</v>
       </c>
+      <c r="AS10" s="1">
+        <v>8</v>
+      </c>
       <c r="AT10" s="1">
         <v>7</v>
       </c>
+      <c r="AU10" s="1">
+        <v>8</v>
+      </c>
       <c r="AV10" s="1">
         <v>7</v>
       </c>
+      <c r="AW10" s="1">
+        <v>8</v>
+      </c>
       <c r="AX10" s="1">
         <v>7</v>
       </c>
+      <c r="AY10" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ10" s="1">
         <v>7</v>
       </c>
+      <c r="BA10" s="1">
+        <v>8</v>
+      </c>
       <c r="BB10" s="1">
         <v>7</v>
       </c>
+      <c r="BC10" s="1">
+        <v>8</v>
+      </c>
       <c r="BD10" s="1">
         <v>7</v>
       </c>
+      <c r="BE10" s="1">
+        <v>8</v>
+      </c>
       <c r="BF10" s="1">
         <v>7</v>
       </c>
+      <c r="BG10" s="1">
+        <v>8</v>
+      </c>
       <c r="BH10" s="1">
         <v>8</v>
       </c>
+      <c r="BI10" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ10" s="1">
         <v>7</v>
       </c>
+      <c r="BK10" s="1">
+        <v>8</v>
+      </c>
       <c r="BL10" s="1">
         <v>0</v>
       </c>
+      <c r="BM10" s="1">
+        <v>8</v>
+      </c>
       <c r="BN10" s="1">
         <v>8</v>
       </c>
+      <c r="BO10" s="1">
+        <v>8</v>
+      </c>
       <c r="BP10" s="1">
         <v>7</v>
       </c>
+      <c r="BQ10" s="1">
+        <v>8</v>
+      </c>
       <c r="BR10" s="1">
         <v>8</v>
       </c>
+      <c r="BS10" s="1">
+        <v>8</v>
+      </c>
       <c r="BT10" s="1">
         <v>8</v>
       </c>
+      <c r="BU10" s="1">
+        <v>8</v>
+      </c>
       <c r="BV10" s="1">
         <v>8</v>
       </c>
+      <c r="BW10" s="1">
+        <v>8</v>
+      </c>
       <c r="BX10" s="1">
         <v>7</v>
       </c>
+      <c r="BY10" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ10" s="1">
         <v>8</v>
       </c>
+      <c r="CA10" s="1">
+        <v>8</v>
+      </c>
       <c r="CB10" s="1">
         <v>7</v>
       </c>
+      <c r="CC10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>8</v>
+      </c>
       <c r="CF10" s="1">
         <v>7</v>
       </c>
+      <c r="CG10" s="1">
+        <v>8</v>
+      </c>
       <c r="CH10" s="1">
         <v>1</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>8</v>
       </c>
       <c r="CJ10" s="1">
         <v>2</v>
       </c>
+      <c r="CK10" s="1">
+        <v>8</v>
+      </c>
       <c r="CL10" s="1">
         <v>2</v>
       </c>
+      <c r="CM10" s="1">
+        <v>8</v>
+      </c>
       <c r="CN10" s="1">
         <v>7</v>
       </c>
+      <c r="CO10" s="1">
+        <v>8</v>
+      </c>
       <c r="CP10" s="1">
         <v>7</v>
       </c>
+      <c r="CQ10" s="1">
+        <v>8</v>
+      </c>
       <c r="CR10" s="1">
         <v>8</v>
       </c>
+      <c r="CS10" s="1">
+        <v>8</v>
+      </c>
       <c r="CT10" s="1">
         <v>7</v>
       </c>
+      <c r="CU10" s="1">
+        <v>8</v>
+      </c>
       <c r="CV10" s="1">
         <v>8</v>
       </c>
+      <c r="CW10" s="1">
+        <v>8</v>
+      </c>
       <c r="CX10" s="1">
         <v>7</v>
       </c>
+      <c r="CY10" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ10" s="1">
         <v>7</v>
       </c>
+      <c r="DA10" s="1">
+        <v>8</v>
+      </c>
       <c r="DB10" s="1">
         <v>7</v>
       </c>
+      <c r="DC10" s="1">
+        <v>8</v>
+      </c>
       <c r="DD10" s="1">
         <v>7</v>
       </c>
+      <c r="DE10" s="1">
+        <v>8</v>
+      </c>
       <c r="DF10" s="1">
         <v>7</v>
       </c>
+      <c r="DG10" s="1">
+        <v>8</v>
+      </c>
       <c r="DH10" s="1">
         <v>7</v>
       </c>
+      <c r="DI10" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ10" s="1">
         <v>7</v>
       </c>
+      <c r="DK10" s="1">
+        <v>8</v>
+      </c>
       <c r="DL10" s="1">
         <v>8</v>
       </c>
+      <c r="DM10" s="1">
+        <v>8</v>
+      </c>
       <c r="DN10" s="1">
         <v>7</v>
       </c>
+      <c r="DO10" s="1">
+        <v>8</v>
+      </c>
       <c r="DP10" s="1">
         <v>0</v>
       </c>
+      <c r="DQ10" s="1">
+        <v>8</v>
+      </c>
       <c r="DR10" s="1">
         <v>8</v>
       </c>
+      <c r="DS10" s="1">
+        <v>8</v>
+      </c>
       <c r="DT10" s="1">
         <v>7</v>
       </c>
+      <c r="DU10" s="1">
+        <v>8</v>
+      </c>
       <c r="DV10" s="1">
         <v>1</v>
       </c>
+      <c r="DW10" s="1">
+        <v>8</v>
+      </c>
       <c r="DX10" s="1">
         <v>8</v>
       </c>
+      <c r="DY10" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ10" s="1">
         <v>1</v>
       </c>
+      <c r="EA10" s="1">
+        <v>8</v>
+      </c>
       <c r="EB10" s="1">
         <v>7</v>
       </c>
+      <c r="EC10" s="1">
+        <v>8</v>
+      </c>
       <c r="ED10" s="1">
         <v>8</v>
       </c>
+      <c r="EE10" s="1">
+        <v>8</v>
+      </c>
       <c r="EF10" s="1">
         <v>7</v>
       </c>
+      <c r="EG10" s="1">
+        <v>8</v>
+      </c>
       <c r="EH10" s="1">
         <v>8</v>
       </c>
+      <c r="EI10" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ10" s="1">
         <v>7</v>
       </c>
+      <c r="EK10" s="1">
+        <v>8</v>
+      </c>
       <c r="EL10" s="1">
         <v>1</v>
+      </c>
+      <c r="EM10" s="1">
+        <v>8</v>
       </c>
       <c r="EN10" s="1">
         <v>2</v>
       </c>
+      <c r="EO10" s="1">
+        <v>8</v>
+      </c>
       <c r="EP10" s="1">
         <v>4</v>
       </c>
+      <c r="EQ10" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER10" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES10" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM10" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN10" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
       <c r="F11" s="1">
         <v>7</v>
       </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
       <c r="J11" s="1">
         <v>7</v>
       </c>
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
       <c r="N11" s="1">
         <v>8</v>
       </c>
+      <c r="O11" s="1">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>8</v>
+      </c>
       <c r="R11" s="1">
         <v>7</v>
       </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>8</v>
+      </c>
+      <c r="U11" s="1">
+        <v>8</v>
+      </c>
       <c r="V11" s="1">
         <v>8</v>
       </c>
+      <c r="W11" s="1">
+        <v>8</v>
+      </c>
+      <c r="X11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>8</v>
+      </c>
       <c r="Z11" s="1">
         <v>7</v>
       </c>
+      <c r="AA11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>8</v>
+      </c>
       <c r="AD11" s="1">
         <v>8</v>
       </c>
+      <c r="AE11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>8</v>
+      </c>
       <c r="AH11" s="1">
         <v>7</v>
       </c>
+      <c r="AI11" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ11" s="1">
         <v>8</v>
       </c>
+      <c r="AK11" s="1">
+        <v>8</v>
+      </c>
       <c r="AL11" s="1">
         <v>8</v>
       </c>
+      <c r="AM11" s="1">
+        <v>8</v>
+      </c>
       <c r="AN11" s="1">
         <v>7</v>
       </c>
+      <c r="AO11" s="1">
+        <v>8</v>
+      </c>
       <c r="AP11" s="1">
         <v>7</v>
       </c>
+      <c r="AQ11" s="1">
+        <v>8</v>
+      </c>
       <c r="AR11" s="1">
         <v>7</v>
       </c>
+      <c r="AS11" s="1">
+        <v>8</v>
+      </c>
       <c r="AT11" s="1">
         <v>8</v>
       </c>
+      <c r="AU11" s="1">
+        <v>8</v>
+      </c>
       <c r="AV11" s="1">
         <v>7</v>
       </c>
+      <c r="AW11" s="1">
+        <v>8</v>
+      </c>
       <c r="AX11" s="1">
         <v>7</v>
       </c>
+      <c r="AY11" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ11" s="1">
         <v>7</v>
       </c>
+      <c r="BA11" s="1">
+        <v>8</v>
+      </c>
       <c r="BB11" s="1">
         <v>7</v>
       </c>
+      <c r="BC11" s="1">
+        <v>8</v>
+      </c>
       <c r="BD11" s="1">
         <v>7</v>
       </c>
+      <c r="BE11" s="1">
+        <v>8</v>
+      </c>
       <c r="BF11" s="1">
         <v>8</v>
       </c>
+      <c r="BG11" s="1">
+        <v>8</v>
+      </c>
       <c r="BH11" s="1">
         <v>7</v>
       </c>
+      <c r="BI11" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ11" s="1">
         <v>7</v>
       </c>
+      <c r="BK11" s="1">
+        <v>8</v>
+      </c>
       <c r="BL11" s="1">
         <v>0</v>
       </c>
+      <c r="BM11" s="1">
+        <v>8</v>
+      </c>
       <c r="BN11" s="1">
         <v>7</v>
       </c>
+      <c r="BO11" s="1">
+        <v>8</v>
+      </c>
       <c r="BP11" s="1">
         <v>7</v>
       </c>
+      <c r="BQ11" s="1">
+        <v>8</v>
+      </c>
       <c r="BR11" s="1">
         <v>8</v>
       </c>
+      <c r="BS11" s="1">
+        <v>8</v>
+      </c>
       <c r="BT11" s="1">
         <v>7</v>
       </c>
+      <c r="BU11" s="1">
+        <v>8</v>
+      </c>
       <c r="BV11" s="1">
         <v>8</v>
       </c>
+      <c r="BW11" s="1">
+        <v>8</v>
+      </c>
       <c r="BX11" s="1">
         <v>8</v>
       </c>
+      <c r="BY11" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ11" s="1">
         <v>8</v>
       </c>
+      <c r="CA11" s="1">
+        <v>8</v>
+      </c>
       <c r="CB11" s="1">
         <v>7</v>
       </c>
+      <c r="CC11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>8</v>
+      </c>
       <c r="CF11" s="1">
+        <v>8</v>
+      </c>
+      <c r="CG11" s="1">
         <v>8</v>
       </c>
       <c r="CH11" s="1">
         <v>2</v>
       </c>
+      <c r="CI11" s="1">
+        <v>8</v>
+      </c>
       <c r="CJ11" s="1">
         <v>7</v>
       </c>
+      <c r="CK11" s="1">
+        <v>8</v>
+      </c>
       <c r="CL11" s="1">
         <v>8</v>
       </c>
+      <c r="CM11" s="1">
+        <v>8</v>
+      </c>
       <c r="CN11" s="1">
         <v>8</v>
       </c>
+      <c r="CO11" s="1">
+        <v>8</v>
+      </c>
       <c r="CP11" s="1">
         <v>8</v>
       </c>
+      <c r="CQ11" s="1">
+        <v>8</v>
+      </c>
       <c r="CR11" s="1">
         <v>7</v>
       </c>
+      <c r="CS11" s="1">
+        <v>8</v>
+      </c>
       <c r="CT11" s="1">
         <v>7</v>
       </c>
+      <c r="CU11" s="1">
+        <v>8</v>
+      </c>
       <c r="CV11" s="1">
         <v>7</v>
       </c>
+      <c r="CW11" s="1">
+        <v>8</v>
+      </c>
       <c r="CX11" s="1">
         <v>8</v>
       </c>
+      <c r="CY11" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ11" s="1">
         <v>7</v>
       </c>
+      <c r="DA11" s="1">
+        <v>8</v>
+      </c>
       <c r="DB11" s="1">
         <v>7</v>
       </c>
+      <c r="DC11" s="1">
+        <v>8</v>
+      </c>
       <c r="DD11" s="1">
         <v>7</v>
       </c>
+      <c r="DE11" s="1">
+        <v>8</v>
+      </c>
       <c r="DF11" s="1">
         <v>7</v>
       </c>
+      <c r="DG11" s="1">
+        <v>8</v>
+      </c>
       <c r="DH11" s="1">
         <v>7</v>
       </c>
+      <c r="DI11" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ11" s="1">
         <v>1</v>
       </c>
+      <c r="DK11" s="1">
+        <v>8</v>
+      </c>
       <c r="DL11" s="1">
         <v>7</v>
       </c>
+      <c r="DM11" s="1">
+        <v>8</v>
+      </c>
       <c r="DN11" s="1">
         <v>7</v>
       </c>
+      <c r="DO11" s="1">
+        <v>8</v>
+      </c>
       <c r="DP11" s="1">
         <v>0</v>
       </c>
+      <c r="DQ11" s="1">
+        <v>8</v>
+      </c>
       <c r="DR11" s="1">
         <v>7</v>
       </c>
+      <c r="DS11" s="1">
+        <v>8</v>
+      </c>
       <c r="DT11" s="1">
         <v>7</v>
       </c>
+      <c r="DU11" s="1">
+        <v>8</v>
+      </c>
       <c r="DV11" s="1">
         <v>8</v>
       </c>
+      <c r="DW11" s="1">
+        <v>8</v>
+      </c>
       <c r="DX11" s="1">
         <v>7</v>
       </c>
+      <c r="DY11" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ11" s="1">
         <v>1</v>
       </c>
+      <c r="EA11" s="1">
+        <v>8</v>
+      </c>
       <c r="EB11" s="1">
         <v>8</v>
       </c>
+      <c r="EC11" s="1">
+        <v>8</v>
+      </c>
       <c r="ED11" s="1">
         <v>8</v>
       </c>
+      <c r="EE11" s="1">
+        <v>8</v>
+      </c>
       <c r="EF11" s="1">
         <v>7</v>
       </c>
+      <c r="EG11" s="1">
+        <v>8</v>
+      </c>
       <c r="EH11" s="1">
         <v>8</v>
       </c>
+      <c r="EI11" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ11" s="1">
         <v>1</v>
       </c>
+      <c r="EK11" s="1">
+        <v>8</v>
+      </c>
       <c r="EL11" s="1">
         <v>8</v>
       </c>
+      <c r="EM11" s="1">
+        <v>8</v>
+      </c>
       <c r="EN11" s="1">
         <v>7</v>
+      </c>
+      <c r="EO11" s="1">
+        <v>8</v>
       </c>
       <c r="EP11" s="1">
         <v>4</v>
       </c>
+      <c r="EQ11" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER11" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES11" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY11" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN11" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
       <c r="F12" s="1">
         <v>8</v>
       </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8</v>
+      </c>
       <c r="N12" s="1">
         <v>7</v>
       </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>8</v>
+      </c>
       <c r="R12" s="1">
         <v>8</v>
       </c>
+      <c r="S12" s="1">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8</v>
+      </c>
+      <c r="U12" s="1">
+        <v>8</v>
+      </c>
       <c r="V12" s="1">
         <v>7</v>
       </c>
+      <c r="W12" s="1">
+        <v>8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>8</v>
+      </c>
       <c r="Z12" s="1">
         <v>7</v>
       </c>
+      <c r="AA12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>8</v>
+      </c>
       <c r="AD12" s="1">
         <v>8</v>
       </c>
+      <c r="AE12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>8</v>
+      </c>
       <c r="AH12" s="1">
         <v>7</v>
       </c>
+      <c r="AI12" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ12" s="1">
         <v>7</v>
       </c>
+      <c r="AK12" s="1">
+        <v>8</v>
+      </c>
       <c r="AL12" s="1">
         <v>7</v>
       </c>
+      <c r="AM12" s="1">
+        <v>8</v>
+      </c>
       <c r="AN12" s="1">
         <v>7</v>
       </c>
+      <c r="AO12" s="1">
+        <v>8</v>
+      </c>
       <c r="AP12" s="1">
         <v>7</v>
       </c>
+      <c r="AQ12" s="1">
+        <v>8</v>
+      </c>
       <c r="AR12" s="1">
         <v>7</v>
       </c>
+      <c r="AS12" s="1">
+        <v>8</v>
+      </c>
       <c r="AT12" s="1">
         <v>7</v>
       </c>
+      <c r="AU12" s="1">
+        <v>8</v>
+      </c>
       <c r="AV12" s="1">
         <v>8</v>
       </c>
+      <c r="AW12" s="1">
+        <v>8</v>
+      </c>
       <c r="AX12" s="1">
         <v>7</v>
       </c>
+      <c r="AY12" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ12" s="1">
         <v>7</v>
       </c>
+      <c r="BA12" s="1">
+        <v>8</v>
+      </c>
       <c r="BB12" s="1">
         <v>7</v>
       </c>
+      <c r="BC12" s="1">
+        <v>8</v>
+      </c>
       <c r="BD12" s="1">
         <v>8</v>
       </c>
+      <c r="BE12" s="1">
+        <v>8</v>
+      </c>
       <c r="BF12" s="1">
         <v>7</v>
       </c>
+      <c r="BG12" s="1">
+        <v>8</v>
+      </c>
       <c r="BH12" s="1">
         <v>7</v>
       </c>
+      <c r="BI12" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ12" s="1">
         <v>7</v>
       </c>
+      <c r="BK12" s="1">
+        <v>8</v>
+      </c>
       <c r="BL12" s="1">
         <v>1</v>
       </c>
+      <c r="BM12" s="1">
+        <v>8</v>
+      </c>
       <c r="BN12" s="1">
         <v>8</v>
       </c>
+      <c r="BO12" s="1">
+        <v>8</v>
+      </c>
       <c r="BP12" s="1">
         <v>8</v>
       </c>
+      <c r="BQ12" s="1">
+        <v>8</v>
+      </c>
       <c r="BR12" s="1">
         <v>8</v>
       </c>
+      <c r="BS12" s="1">
+        <v>8</v>
+      </c>
       <c r="BT12" s="1">
         <v>7</v>
       </c>
+      <c r="BU12" s="1">
+        <v>8</v>
+      </c>
       <c r="BV12" s="1">
         <v>8</v>
       </c>
+      <c r="BW12" s="1">
+        <v>8</v>
+      </c>
       <c r="BX12" s="1">
         <v>7</v>
       </c>
+      <c r="BY12" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ12" s="1">
         <v>8</v>
       </c>
+      <c r="CA12" s="1">
+        <v>8</v>
+      </c>
       <c r="CB12" s="1">
         <v>8</v>
       </c>
+      <c r="CC12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>8</v>
+      </c>
       <c r="CF12" s="1">
         <v>7</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>8</v>
       </c>
       <c r="CH12" s="1">
         <v>2</v>
       </c>
+      <c r="CI12" s="1">
+        <v>8</v>
+      </c>
       <c r="CJ12" s="1">
         <v>7</v>
       </c>
+      <c r="CK12" s="1">
+        <v>8</v>
+      </c>
       <c r="CL12" s="1">
         <v>8</v>
       </c>
+      <c r="CM12" s="1">
+        <v>8</v>
+      </c>
       <c r="CN12" s="1">
         <v>8</v>
       </c>
+      <c r="CO12" s="1">
+        <v>8</v>
+      </c>
       <c r="CP12" s="1">
         <v>7</v>
       </c>
+      <c r="CQ12" s="1">
+        <v>8</v>
+      </c>
       <c r="CR12" s="1">
         <v>7</v>
       </c>
+      <c r="CS12" s="1">
+        <v>8</v>
+      </c>
       <c r="CT12" s="1">
         <v>7</v>
       </c>
+      <c r="CU12" s="1">
+        <v>8</v>
+      </c>
       <c r="CV12" s="1">
         <v>7</v>
       </c>
+      <c r="CW12" s="1">
+        <v>8</v>
+      </c>
       <c r="CX12" s="1">
         <v>7</v>
       </c>
+      <c r="CY12" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ12" s="1">
         <v>8</v>
       </c>
+      <c r="DA12" s="1">
+        <v>8</v>
+      </c>
       <c r="DB12" s="1">
         <v>7</v>
       </c>
+      <c r="DC12" s="1">
+        <v>8</v>
+      </c>
       <c r="DD12" s="1">
         <v>7</v>
       </c>
+      <c r="DE12" s="1">
+        <v>8</v>
+      </c>
       <c r="DF12" s="1">
         <v>7</v>
       </c>
+      <c r="DG12" s="1">
+        <v>8</v>
+      </c>
       <c r="DH12" s="1">
         <v>1</v>
       </c>
+      <c r="DI12" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ12" s="1">
         <v>7</v>
       </c>
+      <c r="DK12" s="1">
+        <v>8</v>
+      </c>
       <c r="DL12" s="1">
         <v>7</v>
       </c>
+      <c r="DM12" s="1">
+        <v>8</v>
+      </c>
       <c r="DN12" s="1">
         <v>7</v>
       </c>
+      <c r="DO12" s="1">
+        <v>8</v>
+      </c>
       <c r="DP12" s="1">
         <v>1</v>
       </c>
+      <c r="DQ12" s="1">
+        <v>8</v>
+      </c>
       <c r="DR12" s="1">
         <v>8</v>
       </c>
+      <c r="DS12" s="1">
+        <v>8</v>
+      </c>
       <c r="DT12" s="1">
         <v>8</v>
       </c>
+      <c r="DU12" s="1">
+        <v>8</v>
+      </c>
       <c r="DV12" s="1">
         <v>8</v>
       </c>
+      <c r="DW12" s="1">
+        <v>8</v>
+      </c>
       <c r="DX12" s="1">
         <v>7</v>
       </c>
+      <c r="DY12" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ12" s="1">
         <v>1</v>
       </c>
+      <c r="EA12" s="1">
+        <v>8</v>
+      </c>
       <c r="EB12" s="1">
         <v>7</v>
       </c>
+      <c r="EC12" s="1">
+        <v>8</v>
+      </c>
       <c r="ED12" s="1">
         <v>8</v>
       </c>
+      <c r="EE12" s="1">
+        <v>8</v>
+      </c>
       <c r="EF12" s="1">
         <v>8</v>
       </c>
+      <c r="EG12" s="1">
+        <v>8</v>
+      </c>
       <c r="EH12" s="1">
         <v>1</v>
       </c>
+      <c r="EI12" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ12" s="1">
         <v>7</v>
       </c>
+      <c r="EK12" s="1">
+        <v>8</v>
+      </c>
       <c r="EL12" s="1">
         <v>8</v>
       </c>
+      <c r="EM12" s="1">
+        <v>8</v>
+      </c>
       <c r="EN12" s="1">
         <v>7</v>
+      </c>
+      <c r="EO12" s="1">
+        <v>8</v>
       </c>
       <c r="EP12" s="1">
         <v>4</v>
       </c>
+      <c r="EQ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER12" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES12" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN12" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
       <c r="F13" s="1">
         <v>7</v>
       </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
       <c r="J13" s="1">
         <v>8</v>
       </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8</v>
+      </c>
       <c r="N13" s="1">
         <v>7</v>
       </c>
+      <c r="O13" s="1">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>8</v>
+      </c>
       <c r="R13" s="1">
         <v>7</v>
       </c>
+      <c r="S13" s="1">
+        <v>8</v>
+      </c>
+      <c r="T13" s="1">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1">
+        <v>8</v>
+      </c>
       <c r="V13" s="1">
         <v>8</v>
       </c>
+      <c r="W13" s="1">
+        <v>8</v>
+      </c>
+      <c r="X13" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>8</v>
+      </c>
       <c r="Z13" s="1">
         <v>7</v>
       </c>
+      <c r="AA13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>8</v>
+      </c>
       <c r="AD13" s="1">
         <v>7</v>
       </c>
+      <c r="AE13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>8</v>
+      </c>
       <c r="AH13" s="1">
         <v>7</v>
       </c>
+      <c r="AI13" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ13" s="1">
         <v>8</v>
       </c>
+      <c r="AK13" s="1">
+        <v>8</v>
+      </c>
       <c r="AL13" s="1">
         <v>7</v>
       </c>
+      <c r="AM13" s="1">
+        <v>8</v>
+      </c>
       <c r="AN13" s="1">
         <v>7</v>
       </c>
+      <c r="AO13" s="1">
+        <v>8</v>
+      </c>
       <c r="AP13" s="1">
         <v>7</v>
       </c>
+      <c r="AQ13" s="1">
+        <v>8</v>
+      </c>
       <c r="AR13" s="1">
         <v>7</v>
       </c>
+      <c r="AS13" s="1">
+        <v>8</v>
+      </c>
       <c r="AT13" s="1">
         <v>7</v>
       </c>
+      <c r="AU13" s="1">
+        <v>8</v>
+      </c>
       <c r="AV13" s="1">
         <v>7</v>
       </c>
+      <c r="AW13" s="1">
+        <v>8</v>
+      </c>
       <c r="AX13" s="1">
         <v>8</v>
       </c>
+      <c r="AY13" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ13" s="1">
         <v>7</v>
       </c>
+      <c r="BA13" s="1">
+        <v>8</v>
+      </c>
       <c r="BB13" s="1">
         <v>8</v>
       </c>
+      <c r="BC13" s="1">
+        <v>8</v>
+      </c>
       <c r="BD13" s="1">
         <v>7</v>
       </c>
+      <c r="BE13" s="1">
+        <v>8</v>
+      </c>
       <c r="BF13" s="1">
         <v>7</v>
       </c>
+      <c r="BG13" s="1">
+        <v>8</v>
+      </c>
       <c r="BH13" s="1">
         <v>7</v>
       </c>
+      <c r="BI13" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ13" s="1">
         <v>7</v>
       </c>
+      <c r="BK13" s="1">
+        <v>8</v>
+      </c>
       <c r="BL13" s="1">
         <v>0</v>
       </c>
+      <c r="BM13" s="1">
+        <v>8</v>
+      </c>
       <c r="BN13" s="1">
         <v>8</v>
       </c>
+      <c r="BO13" s="1">
+        <v>8</v>
+      </c>
       <c r="BP13" s="1">
         <v>7</v>
       </c>
+      <c r="BQ13" s="1">
+        <v>8</v>
+      </c>
       <c r="BR13" s="1">
         <v>8</v>
       </c>
+      <c r="BS13" s="1">
+        <v>8</v>
+      </c>
       <c r="BT13" s="1">
         <v>8</v>
       </c>
+      <c r="BU13" s="1">
+        <v>8</v>
+      </c>
       <c r="BV13" s="1">
         <v>8</v>
       </c>
+      <c r="BW13" s="1">
+        <v>8</v>
+      </c>
       <c r="BX13" s="1">
         <v>7</v>
       </c>
+      <c r="BY13" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ13" s="1">
         <v>8</v>
       </c>
+      <c r="CA13" s="1">
+        <v>8</v>
+      </c>
       <c r="CB13" s="1">
         <v>7</v>
       </c>
+      <c r="CC13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>8</v>
+      </c>
       <c r="CF13" s="1">
         <v>8</v>
       </c>
+      <c r="CG13" s="1">
+        <v>8</v>
+      </c>
       <c r="CH13" s="1">
         <v>1</v>
       </c>
+      <c r="CI13" s="1">
+        <v>8</v>
+      </c>
       <c r="CJ13" s="1">
         <v>7</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>8</v>
       </c>
       <c r="CL13" s="1">
         <v>2</v>
       </c>
+      <c r="CM13" s="1">
+        <v>8</v>
+      </c>
       <c r="CN13" s="1">
         <v>7</v>
       </c>
+      <c r="CO13" s="1">
+        <v>8</v>
+      </c>
       <c r="CP13" s="1">
         <v>7</v>
       </c>
+      <c r="CQ13" s="1">
+        <v>8</v>
+      </c>
       <c r="CR13" s="1">
         <v>7</v>
       </c>
+      <c r="CS13" s="1">
+        <v>8</v>
+      </c>
       <c r="CT13" s="1">
         <v>7</v>
       </c>
+      <c r="CU13" s="1">
+        <v>8</v>
+      </c>
       <c r="CV13" s="1">
         <v>7</v>
       </c>
+      <c r="CW13" s="1">
+        <v>8</v>
+      </c>
       <c r="CX13" s="1">
         <v>7</v>
       </c>
+      <c r="CY13" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ13" s="1">
         <v>7</v>
       </c>
+      <c r="DA13" s="1">
+        <v>8</v>
+      </c>
       <c r="DB13" s="1">
         <v>8</v>
       </c>
+      <c r="DC13" s="1">
+        <v>8</v>
+      </c>
       <c r="DD13" s="1">
         <v>7</v>
       </c>
+      <c r="DE13" s="1">
+        <v>8</v>
+      </c>
       <c r="DF13" s="1">
         <v>1</v>
       </c>
+      <c r="DG13" s="1">
+        <v>8</v>
+      </c>
       <c r="DH13" s="1">
         <v>7</v>
       </c>
+      <c r="DI13" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ13" s="1">
         <v>7</v>
       </c>
+      <c r="DK13" s="1">
+        <v>8</v>
+      </c>
       <c r="DL13" s="1">
         <v>7</v>
       </c>
+      <c r="DM13" s="1">
+        <v>8</v>
+      </c>
       <c r="DN13" s="1">
         <v>7</v>
       </c>
+      <c r="DO13" s="1">
+        <v>8</v>
+      </c>
       <c r="DP13" s="1">
         <v>0</v>
       </c>
+      <c r="DQ13" s="1">
+        <v>8</v>
+      </c>
       <c r="DR13" s="1">
         <v>8</v>
       </c>
+      <c r="DS13" s="1">
+        <v>8</v>
+      </c>
       <c r="DT13" s="1">
         <v>7</v>
       </c>
+      <c r="DU13" s="1">
+        <v>8</v>
+      </c>
       <c r="DV13" s="1">
         <v>1</v>
       </c>
+      <c r="DW13" s="1">
+        <v>8</v>
+      </c>
       <c r="DX13" s="1">
         <v>8</v>
       </c>
+      <c r="DY13" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ13" s="1">
         <v>8</v>
       </c>
+      <c r="EA13" s="1">
+        <v>8</v>
+      </c>
       <c r="EB13" s="1">
         <v>7</v>
       </c>
+      <c r="EC13" s="1">
+        <v>8</v>
+      </c>
       <c r="ED13" s="1">
         <v>1</v>
       </c>
+      <c r="EE13" s="1">
+        <v>8</v>
+      </c>
       <c r="EF13" s="1">
         <v>7</v>
       </c>
+      <c r="EG13" s="1">
+        <v>8</v>
+      </c>
       <c r="EH13" s="1">
         <v>8</v>
       </c>
+      <c r="EI13" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ13" s="1">
         <v>8</v>
       </c>
+      <c r="EK13" s="1">
+        <v>8</v>
+      </c>
       <c r="EL13" s="1">
         <v>1</v>
       </c>
+      <c r="EM13" s="1">
+        <v>8</v>
+      </c>
       <c r="EN13" s="1">
         <v>7</v>
+      </c>
+      <c r="EO13" s="1">
+        <v>8</v>
       </c>
       <c r="EP13" s="1">
         <v>4</v>
       </c>
+      <c r="EQ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER13" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES13" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY13" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM13" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN13" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
       <c r="F14" s="1">
         <v>7</v>
       </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
       <c r="J14" s="1">
         <v>7</v>
       </c>
+      <c r="K14" s="1">
+        <v>8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1">
+        <v>8</v>
+      </c>
       <c r="N14" s="1">
         <v>7</v>
       </c>
+      <c r="O14" s="1">
+        <v>8</v>
+      </c>
+      <c r="P14" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>8</v>
+      </c>
       <c r="R14" s="1">
         <v>7</v>
       </c>
+      <c r="S14" s="1">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1">
+        <v>8</v>
+      </c>
+      <c r="U14" s="1">
+        <v>8</v>
+      </c>
       <c r="V14" s="1">
         <v>8</v>
       </c>
+      <c r="W14" s="1">
+        <v>8</v>
+      </c>
+      <c r="X14" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>8</v>
+      </c>
       <c r="Z14" s="1">
         <v>8</v>
       </c>
+      <c r="AA14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>8</v>
+      </c>
       <c r="AD14" s="1">
         <v>8</v>
       </c>
+      <c r="AE14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>8</v>
+      </c>
       <c r="AH14" s="1">
         <v>8</v>
       </c>
+      <c r="AI14" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ14" s="1">
         <v>8</v>
       </c>
+      <c r="AK14" s="1">
+        <v>8</v>
+      </c>
       <c r="AL14" s="1">
         <v>7</v>
       </c>
+      <c r="AM14" s="1">
+        <v>8</v>
+      </c>
       <c r="AN14" s="1">
         <v>7</v>
       </c>
+      <c r="AO14" s="1">
+        <v>8</v>
+      </c>
       <c r="AP14" s="1">
         <v>7</v>
       </c>
+      <c r="AQ14" s="1">
+        <v>8</v>
+      </c>
       <c r="AR14" s="1">
         <v>7</v>
       </c>
+      <c r="AS14" s="1">
+        <v>8</v>
+      </c>
       <c r="AT14" s="1">
         <v>7</v>
       </c>
+      <c r="AU14" s="1">
+        <v>8</v>
+      </c>
       <c r="AV14" s="1">
         <v>7</v>
       </c>
+      <c r="AW14" s="1">
+        <v>8</v>
+      </c>
       <c r="AX14" s="1">
         <v>7</v>
       </c>
+      <c r="AY14" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ14" s="1">
         <v>8</v>
       </c>
+      <c r="BA14" s="1">
+        <v>8</v>
+      </c>
       <c r="BB14" s="1">
         <v>7</v>
       </c>
+      <c r="BC14" s="1">
+        <v>8</v>
+      </c>
       <c r="BD14" s="1">
         <v>7</v>
       </c>
+      <c r="BE14" s="1">
+        <v>8</v>
+      </c>
       <c r="BF14" s="1">
         <v>7</v>
       </c>
+      <c r="BG14" s="1">
+        <v>8</v>
+      </c>
       <c r="BH14" s="1">
         <v>7</v>
       </c>
+      <c r="BI14" s="1">
+        <v>8</v>
+      </c>
       <c r="BJ14" s="1">
         <v>7</v>
       </c>
+      <c r="BK14" s="1">
+        <v>8</v>
+      </c>
       <c r="BL14" s="1">
         <v>0</v>
       </c>
+      <c r="BM14" s="1">
+        <v>8</v>
+      </c>
       <c r="BN14" s="1">
         <v>7</v>
       </c>
+      <c r="BO14" s="1">
+        <v>8</v>
+      </c>
       <c r="BP14" s="1">
         <v>7</v>
       </c>
+      <c r="BQ14" s="1">
+        <v>8</v>
+      </c>
       <c r="BR14" s="1">
         <v>8</v>
       </c>
+      <c r="BS14" s="1">
+        <v>8</v>
+      </c>
       <c r="BT14" s="1">
         <v>7</v>
       </c>
+      <c r="BU14" s="1">
+        <v>8</v>
+      </c>
       <c r="BV14" s="1">
         <v>8</v>
       </c>
+      <c r="BW14" s="1">
+        <v>8</v>
+      </c>
       <c r="BX14" s="1">
         <v>7</v>
       </c>
+      <c r="BY14" s="1">
+        <v>8</v>
+      </c>
       <c r="BZ14" s="1">
         <v>8</v>
       </c>
+      <c r="CA14" s="1">
+        <v>8</v>
+      </c>
       <c r="CB14" s="1">
         <v>7</v>
       </c>
+      <c r="CC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>8</v>
+      </c>
       <c r="CF14" s="1">
         <v>8</v>
       </c>
+      <c r="CG14" s="1">
+        <v>8</v>
+      </c>
       <c r="CH14" s="1">
         <v>1</v>
       </c>
+      <c r="CI14" s="1">
+        <v>8</v>
+      </c>
       <c r="CJ14" s="1">
         <v>1</v>
       </c>
+      <c r="CK14" s="1">
+        <v>8</v>
+      </c>
       <c r="CL14" s="1">
         <v>8</v>
       </c>
+      <c r="CM14" s="1">
+        <v>8</v>
+      </c>
       <c r="CN14" s="1">
         <v>8</v>
       </c>
+      <c r="CO14" s="1">
+        <v>8</v>
+      </c>
       <c r="CP14" s="1">
         <v>7</v>
       </c>
+      <c r="CQ14" s="1">
+        <v>8</v>
+      </c>
       <c r="CR14" s="1">
         <v>7</v>
       </c>
+      <c r="CS14" s="1">
+        <v>8</v>
+      </c>
       <c r="CT14" s="1">
         <v>7</v>
       </c>
+      <c r="CU14" s="1">
+        <v>8</v>
+      </c>
       <c r="CV14" s="1">
         <v>7</v>
       </c>
+      <c r="CW14" s="1">
+        <v>8</v>
+      </c>
       <c r="CX14" s="1">
         <v>7</v>
       </c>
+      <c r="CY14" s="1">
+        <v>8</v>
+      </c>
       <c r="CZ14" s="1">
         <v>7</v>
       </c>
+      <c r="DA14" s="1">
+        <v>8</v>
+      </c>
       <c r="DB14" s="1">
         <v>7</v>
       </c>
+      <c r="DC14" s="1">
+        <v>8</v>
+      </c>
       <c r="DD14" s="1">
         <v>8</v>
       </c>
+      <c r="DE14" s="1">
+        <v>8</v>
+      </c>
       <c r="DF14" s="1">
         <v>7</v>
       </c>
+      <c r="DG14" s="1">
+        <v>8</v>
+      </c>
       <c r="DH14" s="1">
         <v>7</v>
       </c>
+      <c r="DI14" s="1">
+        <v>8</v>
+      </c>
       <c r="DJ14" s="1">
         <v>7</v>
       </c>
+      <c r="DK14" s="1">
+        <v>8</v>
+      </c>
       <c r="DL14" s="1">
         <v>7</v>
       </c>
+      <c r="DM14" s="1">
+        <v>8</v>
+      </c>
       <c r="DN14" s="1">
         <v>7</v>
       </c>
+      <c r="DO14" s="1">
+        <v>8</v>
+      </c>
       <c r="DP14" s="1">
         <v>0</v>
       </c>
+      <c r="DQ14" s="1">
+        <v>8</v>
+      </c>
       <c r="DR14" s="1">
         <v>7</v>
       </c>
+      <c r="DS14" s="1">
+        <v>8</v>
+      </c>
       <c r="DT14" s="1">
         <v>7</v>
       </c>
+      <c r="DU14" s="1">
+        <v>8</v>
+      </c>
       <c r="DV14" s="1">
         <v>8</v>
       </c>
+      <c r="DW14" s="1">
+        <v>8</v>
+      </c>
       <c r="DX14" s="1">
         <v>7</v>
       </c>
+      <c r="DY14" s="1">
+        <v>8</v>
+      </c>
       <c r="DZ14" s="1">
         <v>8</v>
       </c>
+      <c r="EA14" s="1">
+        <v>8</v>
+      </c>
       <c r="EB14" s="1">
         <v>7</v>
       </c>
+      <c r="EC14" s="1">
+        <v>8</v>
+      </c>
       <c r="ED14" s="1">
         <v>8</v>
       </c>
+      <c r="EE14" s="1">
+        <v>8</v>
+      </c>
       <c r="EF14" s="1">
         <v>7</v>
       </c>
+      <c r="EG14" s="1">
+        <v>8</v>
+      </c>
       <c r="EH14" s="1">
         <v>8</v>
       </c>
+      <c r="EI14" s="1">
+        <v>8</v>
+      </c>
       <c r="EJ14" s="1">
         <v>1</v>
       </c>
+      <c r="EK14" s="1">
+        <v>8</v>
+      </c>
       <c r="EL14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EM14" s="1">
         <v>8</v>
       </c>
       <c r="EN14" s="1">
         <v>2</v>
       </c>
+      <c r="EO14" s="1">
+        <v>8</v>
+      </c>
       <c r="EP14" s="1">
         <v>4</v>
       </c>
+      <c r="EQ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="ER14" s="1">
+        <v>8</v>
+      </c>
+      <c r="ES14" s="1">
+        <v>8</v>
+      </c>
+      <c r="ET14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EU14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EV14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EW14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EX14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EY14" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FA14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FB14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FD14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FE14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FF14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FG14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FH14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FJ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FK14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FL14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FM14" s="1">
+        <v>8</v>
+      </c>
+      <c r="FN14" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>

--- a/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RhythmiCar\RhythmiCar_Unity\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSH\Documents\Rhythm\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85CCA1-BE8F-4B80-AACF-8C503B14B3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C24E5-1A22-4F81-B5B0-C7246B2A2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="211">
   <si>
     <t>stage</t>
   </si>
@@ -29,63 +29,53 @@
     <t>itemLength</t>
   </si>
   <si>
-    <t>itemStartPos</t>
-  </si>
-  <si>
-    <t>itemInterval</t>
+    <t>#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>road</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>0m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>9m</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
     <t>#</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>road</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0m</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>4m</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>7m</t>
-  </si>
-  <si>
-    <t>8m</t>
-  </si>
-  <si>
-    <t>9m</t>
-  </si>
-  <si>
-    <t>10m</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>동코인</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -670,6 +660,33 @@
   </si>
   <si>
     <t>168m</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>songName</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -1642,173 +1659,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="G13">
         <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1816,22 +1824,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77577FBF-AC70-439D-AB00-77766A3B82B8}">
   <dimension ref="A1:FN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="FE18" sqref="FE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="6.69921875" style="1"/>
+    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="6.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1861,1085 +1869,1085 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CZ7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DB7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DF7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DH7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DJ7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DZ7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EA7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EB7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EF7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EH7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EJ7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="EK7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EL7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="EM7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EN7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EO7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EP7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EQ7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="ER7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="ES7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="ET7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EU7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="EV7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="EW7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EX7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EY7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EZ7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FA7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FB7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FC7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FD7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FE7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FF7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FG7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="FH7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="FI7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="FJ7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FK7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FL7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="FM7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="FN7" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>1</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>1</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>1</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>1</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>1</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>1</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>1</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>1</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>1</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>1</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>1</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>1</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>1</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>1</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>1</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>1</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>1</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>1</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>1</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>1</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>1</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>1</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>1</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>1</v>
+      </c>
+      <c r="EQ8">
+        <v>0</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <v>0</v>
+      </c>
+      <c r="EY8">
+        <v>0</v>
+      </c>
+      <c r="EZ8">
+        <v>0</v>
+      </c>
+      <c r="FA8">
+        <v>0</v>
+      </c>
+      <c r="FB8">
+        <v>0</v>
+      </c>
+      <c r="FC8">
+        <v>0</v>
+      </c>
+      <c r="FD8">
+        <v>0</v>
+      </c>
+      <c r="FE8">
+        <v>0</v>
+      </c>
+      <c r="FF8">
+        <v>0</v>
+      </c>
+      <c r="FG8">
+        <v>0</v>
+      </c>
+      <c r="FH8">
+        <v>0</v>
+      </c>
+      <c r="FI8">
+        <v>0</v>
+      </c>
+      <c r="FJ8">
+        <v>0</v>
+      </c>
+      <c r="FK8">
+        <v>0</v>
+      </c>
+      <c r="FL8">
+        <v>0</v>
+      </c>
+      <c r="FM8">
+        <v>0</v>
+      </c>
+      <c r="FN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CF7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CM7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CO7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CP7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CQ7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CS7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CU7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CW7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CX7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CY7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CZ7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DD7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DF7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DH7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DI7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DK7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DL7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DM7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DN7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DO7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DT7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DX7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DZ7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EA7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="EC7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="EF7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="EG7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="EH7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="EI7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="EJ7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="EK7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="EL7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="EM7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EN7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EO7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="EP7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="EQ7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ER7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="ES7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="ET7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EU7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="EV7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="EW7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EX7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="EY7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="EZ7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="FA7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="FB7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="FC7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="FD7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="FE7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="FF7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="FG7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="FH7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="FI7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="FJ7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="FK7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="FL7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="FM7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="FN7" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>1</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>1</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>1</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>1</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>1</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>1</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>1</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>1</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>1</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>1</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>1</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>1</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>1</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>1</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>1</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>1</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>1</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>1</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>1</v>
-      </c>
-      <c r="CW8">
-        <v>0</v>
-      </c>
-      <c r="CX8">
-        <v>1</v>
-      </c>
-      <c r="CY8">
-        <v>0</v>
-      </c>
-      <c r="CZ8">
-        <v>1</v>
-      </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
-      <c r="DB8">
-        <v>1</v>
-      </c>
-      <c r="DC8">
-        <v>0</v>
-      </c>
-      <c r="DD8">
-        <v>1</v>
-      </c>
-      <c r="DE8">
-        <v>0</v>
-      </c>
-      <c r="DF8">
-        <v>1</v>
-      </c>
-      <c r="DG8">
-        <v>0</v>
-      </c>
-      <c r="DH8">
-        <v>1</v>
-      </c>
-      <c r="DI8">
-        <v>0</v>
-      </c>
-      <c r="DJ8">
-        <v>1</v>
-      </c>
-      <c r="DK8">
-        <v>0</v>
-      </c>
-      <c r="DL8">
-        <v>1</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>1</v>
-      </c>
-      <c r="DO8">
-        <v>0</v>
-      </c>
-      <c r="DP8">
-        <v>1</v>
-      </c>
-      <c r="DQ8">
-        <v>0</v>
-      </c>
-      <c r="DR8">
-        <v>1</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
-      </c>
-      <c r="DT8">
-        <v>1</v>
-      </c>
-      <c r="DU8">
-        <v>0</v>
-      </c>
-      <c r="DV8">
-        <v>1</v>
-      </c>
-      <c r="DW8">
-        <v>0</v>
-      </c>
-      <c r="DX8">
-        <v>1</v>
-      </c>
-      <c r="DY8">
-        <v>0</v>
-      </c>
-      <c r="DZ8">
-        <v>1</v>
-      </c>
-      <c r="EA8">
-        <v>0</v>
-      </c>
-      <c r="EB8">
-        <v>1</v>
-      </c>
-      <c r="EC8">
-        <v>0</v>
-      </c>
-      <c r="ED8">
-        <v>1</v>
-      </c>
-      <c r="EE8">
-        <v>0</v>
-      </c>
-      <c r="EF8">
-        <v>1</v>
-      </c>
-      <c r="EG8">
-        <v>0</v>
-      </c>
-      <c r="EH8">
-        <v>1</v>
-      </c>
-      <c r="EI8">
-        <v>0</v>
-      </c>
-      <c r="EJ8">
-        <v>1</v>
-      </c>
-      <c r="EK8">
-        <v>0</v>
-      </c>
-      <c r="EL8">
-        <v>1</v>
-      </c>
-      <c r="EM8">
-        <v>0</v>
-      </c>
-      <c r="EN8">
-        <v>1</v>
-      </c>
-      <c r="EO8">
-        <v>0</v>
-      </c>
-      <c r="EP8">
-        <v>1</v>
-      </c>
-      <c r="EQ8">
-        <v>0</v>
-      </c>
-      <c r="ER8">
-        <v>0</v>
-      </c>
-      <c r="ES8">
-        <v>0</v>
-      </c>
-      <c r="ET8">
-        <v>0</v>
-      </c>
-      <c r="EU8">
-        <v>0</v>
-      </c>
-      <c r="EV8">
-        <v>0</v>
-      </c>
-      <c r="EW8">
-        <v>0</v>
-      </c>
-      <c r="EX8">
-        <v>0</v>
-      </c>
-      <c r="EY8">
-        <v>0</v>
-      </c>
-      <c r="EZ8">
-        <v>0</v>
-      </c>
-      <c r="FA8">
-        <v>0</v>
-      </c>
-      <c r="FB8">
-        <v>0</v>
-      </c>
-      <c r="FC8">
-        <v>0</v>
-      </c>
-      <c r="FD8">
-        <v>0</v>
-      </c>
-      <c r="FE8">
-        <v>0</v>
-      </c>
-      <c r="FF8">
-        <v>0</v>
-      </c>
-      <c r="FG8">
-        <v>0</v>
-      </c>
-      <c r="FH8">
-        <v>0</v>
-      </c>
-      <c r="FI8">
-        <v>0</v>
-      </c>
-      <c r="FJ8">
-        <v>0</v>
-      </c>
-      <c r="FK8">
-        <v>0</v>
-      </c>
-      <c r="FL8">
-        <v>0</v>
-      </c>
-      <c r="FM8">
-        <v>0</v>
-      </c>
-      <c r="FN8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -3449,9 +3457,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3961,9 +3969,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -4473,9 +4481,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -4985,9 +4993,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5497,9 +5505,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -6009,134 +6017,134 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:170" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:170" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:170" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSH\Documents\Rhythm\RhythmiCar_Unity\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RhythmiCar\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C24E5-1A22-4F81-B5B0-C7246B2A2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705061EB-D20C-4E31-A033-F7BDBDAA45F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfo" sheetId="1" r:id="rId1"/>
@@ -1661,38 +1661,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1824,20 +1824,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77577FBF-AC70-439D-AB00-77766A3B82B8}">
   <dimension ref="A1:FN40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FE18" sqref="FE18"/>
+      <selection pane="bottomRight" activeCell="BW11" sqref="BW11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="6.75" style="1"/>
+    <col min="1" max="1" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="6.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1901,27 +1901,27 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -3543,7 +3543,7 @@
         <v>8</v>
       </c>
       <c r="AC10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="1">
         <v>7</v>
@@ -3579,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="AO10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP10" s="1">
         <v>7</v>
@@ -3609,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="AY10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ10" s="1">
         <v>7</v>
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="BE10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BF10" s="1">
         <v>7</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
         <v>8</v>
@@ -3663,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="BQ10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="1">
         <v>8</v>
@@ -3969,7 +3969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3980,16 +3980,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
@@ -4013,7 +4013,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P11" s="1">
         <v>8</v>
@@ -4064,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="AF11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" s="1">
         <v>8</v>
@@ -4085,7 +4085,7 @@
         <v>8</v>
       </c>
       <c r="AM11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN11" s="1">
         <v>7</v>
@@ -4097,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="AQ11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR11" s="1">
         <v>7</v>
@@ -4115,7 +4115,7 @@
         <v>7</v>
       </c>
       <c r="AW11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="1">
         <v>7</v>
@@ -4127,13 +4127,13 @@
         <v>7</v>
       </c>
       <c r="BA11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB11" s="1">
         <v>7</v>
       </c>
       <c r="BC11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD11" s="1">
         <v>7</v>
@@ -4145,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="BG11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH11" s="1">
         <v>7</v>
       </c>
       <c r="BI11" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ11" s="1">
         <v>7</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BN11" s="1">
         <v>7</v>
@@ -4481,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1">
         <v>8</v>
@@ -4516,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1">
         <v>8</v>
@@ -4528,7 +4528,7 @@
         <v>8</v>
       </c>
       <c r="P12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="1">
         <v>8</v>
@@ -4540,7 +4540,7 @@
         <v>8</v>
       </c>
       <c r="T12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" s="1">
         <v>8</v>
@@ -4552,7 +4552,7 @@
         <v>8</v>
       </c>
       <c r="X12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y12" s="1">
         <v>8</v>
@@ -4564,7 +4564,7 @@
         <v>8</v>
       </c>
       <c r="AB12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="1">
         <v>8</v>
@@ -4576,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="AF12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG12" s="1">
         <v>8</v>
@@ -4669,7 +4669,7 @@
         <v>7</v>
       </c>
       <c r="BK12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BL12" s="1">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
@@ -5019,7 +5019,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1">
         <v>8</v>
@@ -5031,7 +5031,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
@@ -5175,7 +5175,7 @@
         <v>7</v>
       </c>
       <c r="BI13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ13" s="1">
         <v>7</v>
@@ -5505,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14" s="1">
         <v>8</v>
@@ -6017,132 +6017,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
